--- a/results/mp/tinybert/dilemma/confidence/126/stop-words-topk-0.1/percents/scores-10.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/126/stop-words-topk-0.1/percents/scores-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="62">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,19 +40,22 @@
     <t>name</t>
   </si>
   <si>
+    <t>illegal</t>
+  </si>
+  <si>
     <t>worst</t>
   </si>
   <si>
-    <t>illegal</t>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>scary</t>
   </si>
   <si>
     <t>terrifying</t>
   </si>
   <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>scary</t>
+    <t>dark</t>
   </si>
   <si>
     <t>boring</t>
@@ -61,96 +64,63 @@
     <t>addicted</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>destroying</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>annoying</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>frustrating</t>
-  </si>
-  <si>
-    <t>vicious</t>
-  </si>
-  <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>harsh</t>
-  </si>
-  <si>
-    <t>harmful</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>terribly</t>
-  </si>
-  <si>
-    <t>hated</t>
-  </si>
-  <si>
-    <t>toxic</t>
-  </si>
-  <si>
-    <t>racist</t>
-  </si>
-  <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>biased</t>
-  </si>
-  <si>
-    <t>disappointed</t>
+    <t>afraid</t>
   </si>
   <si>
     <t>worse</t>
   </si>
   <si>
-    <t>dumb</t>
-  </si>
-  <si>
-    <t>[UNK]</t>
+    <t>false</t>
   </si>
   <si>
     <t>0.95-negative</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
@@ -160,85 +130,55 @@
     <t>brilliant</t>
   </si>
   <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>fascinating</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>incredible</t>
   </si>
   <si>
     <t>glad</t>
   </si>
   <si>
-    <t>better</t>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>worth</t>
   </si>
   <si>
     <t>netflix</t>
   </si>
   <si>
-    <t>solid</t>
-  </si>
-  <si>
-    <t>timely</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>fascinating</t>
-  </si>
-  <si>
-    <t>accurate</t>
-  </si>
-  <si>
-    <t>easier</t>
-  </si>
-  <si>
-    <t>engagement</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>incredible</t>
-  </si>
-  <si>
-    <t>remarkably</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>business</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>wat</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>paying</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>documentary</t>
+    <t>…</t>
   </si>
   <si>
     <t>0.95-positive</t>
@@ -617,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BS36"/>
+  <dimension ref="A1:BS26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -625,28 +565,28 @@
   <sheetData>
     <row r="1" spans="1:71">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J1" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="S1" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="AB1" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="AK1" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="AT1" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="BC1" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="BL1" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:71">
@@ -848,13 +788,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.01417038199061956</v>
+        <v>0.0165113330897401</v>
       </c>
       <c r="C3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -866,19 +806,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="K3">
-        <v>0.0103471689472276</v>
+        <v>0.009761455274815025</v>
       </c>
       <c r="L3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -890,19 +830,19 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="T3">
-        <v>0.01674153588908379</v>
+        <v>0.01950026074769401</v>
       </c>
       <c r="U3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="V3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -914,19 +854,19 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="AC3">
-        <v>0.01207278131289043</v>
+        <v>0.08740928096979642</v>
       </c>
       <c r="AD3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF3">
         <v>1</v>
@@ -938,19 +878,19 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AK3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AL3">
-        <v>0.150729291628972</v>
+        <v>0.02386869347854974</v>
       </c>
       <c r="AM3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AN3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AO3">
         <v>0</v>
@@ -962,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="AU3">
-        <v>0.09835768587509006</v>
+        <v>0.07257226571432381</v>
       </c>
       <c r="AV3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX3">
         <v>1</v>
@@ -986,19 +926,19 @@
         <v>0</v>
       </c>
       <c r="BA3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BC3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BD3">
-        <v>0.1277777555163511</v>
+        <v>0.03085818584791891</v>
       </c>
       <c r="BE3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="BF3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="BG3">
         <v>0</v>
@@ -1010,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="BJ3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="BM3">
-        <v>0.07465393941254106</v>
+        <v>0.06540021804244944</v>
       </c>
       <c r="BN3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BO3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BP3">
         <v>1</v>
@@ -1034,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="BS3">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:71">
@@ -1042,13 +982,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.01414629982226112</v>
+        <v>0.01501958180873128</v>
       </c>
       <c r="C4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1060,13 +1000,13 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="K4">
-        <v>0.009645928858417464</v>
+        <v>0.009725430922352762</v>
       </c>
       <c r="L4">
         <v>12</v>
@@ -1084,19 +1024,19 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="T4">
-        <v>0.0166271455893812</v>
+        <v>0.01777158502004498</v>
       </c>
       <c r="U4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="V4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -1108,13 +1048,13 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="AC4">
-        <v>0.01139019597578803</v>
+        <v>0.08644188751513496</v>
       </c>
       <c r="AD4">
         <v>12</v>
@@ -1132,19 +1072,19 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AK4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AL4">
-        <v>0.1489526437229663</v>
+        <v>0.02179374355965732</v>
       </c>
       <c r="AM4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AN4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO4">
         <v>0</v>
@@ -1156,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="AR4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="AU4">
-        <v>0.09425446857546273</v>
+        <v>0.07146891697157265</v>
       </c>
       <c r="AV4">
         <v>12</v>
@@ -1180,19 +1120,19 @@
         <v>0</v>
       </c>
       <c r="BA4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BC4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BD4">
-        <v>0.1257246853276516</v>
+        <v>0.02822919722303706</v>
       </c>
       <c r="BE4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BF4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BG4">
         <v>0</v>
@@ -1204,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="BJ4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BL4" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="BM4">
-        <v>0.07271722783217212</v>
+        <v>0.06423115002997772</v>
       </c>
       <c r="BN4">
         <v>12</v>
@@ -1228,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="BS4">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:71">
@@ -1236,13 +1176,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.00372334422081499</v>
+        <v>0.004499270078001301</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1257,10 +1197,10 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="K5">
-        <v>0.008908565517069665</v>
+        <v>0.00899210007292553</v>
       </c>
       <c r="L5">
         <v>11</v>
@@ -1278,19 +1218,19 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="T5">
-        <v>0.004378574899829331</v>
+        <v>0.005300104299077605</v>
       </c>
       <c r="U5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -1305,10 +1245,10 @@
         <v>1</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="AC5">
-        <v>0.01053602518913176</v>
+        <v>0.08188146633646859</v>
       </c>
       <c r="AD5">
         <v>11</v>
@@ -1326,19 +1266,19 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="AL5">
-        <v>0.04138726785804271</v>
+        <v>0.006470554314496819</v>
       </c>
       <c r="AM5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO5">
         <v>0</v>
@@ -1353,10 +1293,10 @@
         <v>1</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="AU5">
-        <v>0.08783723842456631</v>
+        <v>0.06873315886989952</v>
       </c>
       <c r="AV5">
         <v>11</v>
@@ -1374,19 +1314,19 @@
         <v>0</v>
       </c>
       <c r="BA5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BC5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="BD5">
-        <v>0.03963780577941443</v>
+        <v>0.008343274339167563</v>
       </c>
       <c r="BE5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BF5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG5">
         <v>0</v>
@@ -1401,10 +1341,10 @@
         <v>1</v>
       </c>
       <c r="BL5" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="BM5">
-        <v>0.06860747061170622</v>
+        <v>0.06237741370613336</v>
       </c>
       <c r="BN5">
         <v>11</v>
@@ -1422,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="BS5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:71">
@@ -1430,13 +1370,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.003717323678725381</v>
+        <v>0.00449326601925759</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1451,10 +1391,10 @@
         <v>2</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="K6">
-        <v>0.008872442264532007</v>
+        <v>0.008944067602975845</v>
       </c>
       <c r="L6">
         <v>11</v>
@@ -1472,19 +1412,19 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="T6">
-        <v>0.004349977324903685</v>
+        <v>0.005271585020044978</v>
       </c>
       <c r="U6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -1499,10 +1439,10 @@
         <v>2</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="AC6">
-        <v>0.01036443973957788</v>
+        <v>0.08059160839691998</v>
       </c>
       <c r="AD6">
         <v>11</v>
@@ -1520,19 +1460,19 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AK6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="AL6">
-        <v>0.04094310588154128</v>
+        <v>0.006409128175041933</v>
       </c>
       <c r="AM6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO6">
         <v>0</v>
@@ -1547,10 +1487,10 @@
         <v>2</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="AU6">
-        <v>0.08552322557329718</v>
+        <v>0.06726202721289799</v>
       </c>
       <c r="AV6">
         <v>11</v>
@@ -1568,19 +1508,19 @@
         <v>0</v>
       </c>
       <c r="BA6">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BC6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="BD6">
-        <v>0.03912453823223953</v>
+        <v>0.00822919722303706</v>
       </c>
       <c r="BE6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BF6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG6">
         <v>0</v>
@@ -1595,10 +1535,10 @@
         <v>2</v>
       </c>
       <c r="BL6" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="BM6">
-        <v>0.06643442497160923</v>
+        <v>0.06081865635617106</v>
       </c>
       <c r="BN6">
         <v>11</v>
@@ -1616,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="BS6">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:71">
@@ -1624,7 +1564,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.003711303136635771</v>
+        <v>0.00374739037875318</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -1642,13 +1582,13 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="K7">
-        <v>0.00519766664197224</v>
+        <v>0.00525339712086484</v>
       </c>
       <c r="L7">
         <v>6</v>
@@ -1672,7 +1612,7 @@
         <v>12</v>
       </c>
       <c r="T7">
-        <v>0.004321379749978039</v>
+        <v>0.004407247156220461</v>
       </c>
       <c r="U7">
         <v>4</v>
@@ -1690,13 +1630,13 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="AC7">
-        <v>0.0061507809561478</v>
+        <v>0.05714457353381373</v>
       </c>
       <c r="AD7">
         <v>6</v>
@@ -1720,7 +1660,7 @@
         <v>12</v>
       </c>
       <c r="AL7">
-        <v>0.04049894390503984</v>
+        <v>0.005371653215595721</v>
       </c>
       <c r="AM7">
         <v>4</v>
@@ -1738,13 +1678,13 @@
         <v>0</v>
       </c>
       <c r="AR7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="AU7">
-        <v>0.05420841243590478</v>
+        <v>0.05284767087603157</v>
       </c>
       <c r="AV7">
         <v>6</v>
@@ -1768,7 +1708,7 @@
         <v>12</v>
       </c>
       <c r="BD7">
-        <v>0.03861127068506463</v>
+        <v>0.006914702910596134</v>
       </c>
       <c r="BE7">
         <v>4</v>
@@ -1786,13 +1726,13 @@
         <v>0</v>
       </c>
       <c r="BJ7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BL7" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="BM7">
-        <v>0.04660998741597864</v>
+        <v>0.05077059606196813</v>
       </c>
       <c r="BN7">
         <v>6</v>
@@ -1818,13 +1758,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.002982287701905759</v>
+        <v>0.003723374143778337</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1836,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="K8">
-        <v>0.004454282758534833</v>
+        <v>0.004502054095206476</v>
       </c>
       <c r="L8">
         <v>5</v>
@@ -1866,13 +1806,13 @@
         <v>13</v>
       </c>
       <c r="T8">
-        <v>0.003520018464818853</v>
+        <v>0.004293170040089958</v>
       </c>
       <c r="U8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W8">
         <v>0</v>
@@ -1884,13 +1824,13 @@
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AC8">
-        <v>0.005268012594565878</v>
+        <v>0.05210045562781662</v>
       </c>
       <c r="AD8">
         <v>5</v>
@@ -1914,13 +1854,13 @@
         <v>13</v>
       </c>
       <c r="AL8">
-        <v>0.03395783356854899</v>
+        <v>0.005125948657776173</v>
       </c>
       <c r="AM8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO8">
         <v>0</v>
@@ -1932,13 +1872,13 @@
         <v>0</v>
       </c>
       <c r="AR8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AT8" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AU8">
-        <v>0.04740551347646349</v>
+        <v>0.04956023840298285</v>
       </c>
       <c r="AV8">
         <v>5</v>
@@ -1962,13 +1902,13 @@
         <v>13</v>
       </c>
       <c r="BD8">
-        <v>0.03378203869578315</v>
+        <v>0.006458394446074117</v>
       </c>
       <c r="BE8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BF8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG8">
         <v>0</v>
@@ -1980,13 +1920,13 @@
         <v>0</v>
       </c>
       <c r="BJ8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BL8" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="BM8">
-        <v>0.04213805592216322</v>
+        <v>0.04833232573188791</v>
       </c>
       <c r="BN8">
         <v>5</v>
@@ -2012,7 +1952,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.002976267159816148</v>
+        <v>0.003001514738248771</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -2030,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K9">
-        <v>0.003710898875097426</v>
+        <v>0.003750711069548111</v>
       </c>
       <c r="L9">
         <v>4</v>
@@ -2060,7 +2000,7 @@
         <v>14</v>
       </c>
       <c r="T9">
-        <v>0.003491420889893207</v>
+        <v>0.003542909292395945</v>
       </c>
       <c r="U9">
         <v>3</v>
@@ -2078,13 +2018,13 @@
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="AC9">
-        <v>0.004385244232983958</v>
+        <v>0.0470563377218195</v>
       </c>
       <c r="AD9">
         <v>4</v>
@@ -2108,7 +2048,7 @@
         <v>14</v>
       </c>
       <c r="AL9">
-        <v>0.03351367159204756</v>
+        <v>0.004334178256149508</v>
       </c>
       <c r="AM9">
         <v>3</v>
@@ -2126,13 +2066,13 @@
         <v>0</v>
       </c>
       <c r="AR9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="AU9">
-        <v>0.0406026145170222</v>
+        <v>0.04627280592993414</v>
       </c>
       <c r="AV9">
         <v>4</v>
@@ -2156,7 +2096,7 @@
         <v>14</v>
       </c>
       <c r="BD9">
-        <v>0.03326877114860825</v>
+        <v>0.00560020859815521</v>
       </c>
       <c r="BE9">
         <v>3</v>
@@ -2174,13 +2114,13 @@
         <v>0</v>
       </c>
       <c r="BJ9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL9" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="BM9">
-        <v>0.0376661244283478</v>
+        <v>0.04589405540180768</v>
       </c>
       <c r="BN9">
         <v>4</v>
@@ -2206,13 +2146,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.002235210640906917</v>
+        <v>0.00299551067950506</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -2224,19 +2164,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="K10">
-        <v>0.003084762497778011</v>
+        <v>0.002993363985146036</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -2248,19 +2188,19 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>104</v>
+        <v>1</v>
       </c>
       <c r="S10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="T10">
-        <v>0.002632864454882728</v>
+        <v>0.003514390013363319</v>
       </c>
       <c r="U10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W10">
         <v>0</v>
@@ -2272,19 +2212,19 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="AC10">
-        <v>0.002619707509820116</v>
+        <v>0.04185098757337881</v>
       </c>
       <c r="AD10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF10">
         <v>1</v>
@@ -2296,19 +2236,19 @@
         <v>0</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AL10">
-        <v>0.02608423730255383</v>
+        <v>0.004272752116694622</v>
       </c>
       <c r="AM10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO10">
         <v>0</v>
@@ -2320,19 +2260,19 @@
         <v>0</v>
       </c>
       <c r="AR10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT10" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="AU10">
-        <v>0.02699681659813965</v>
+        <v>0.04280148199976024</v>
       </c>
       <c r="AV10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX10">
         <v>1</v>
@@ -2344,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="BA10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="BD10">
-        <v>0.02741300406497697</v>
+        <v>0.005486131482024706</v>
       </c>
       <c r="BE10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BF10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG10">
         <v>0</v>
@@ -2368,19 +2308,19 @@
         <v>0</v>
       </c>
       <c r="BJ10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL10" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="BM10">
-        <v>0.02872226144071698</v>
+        <v>0.04326094040298217</v>
       </c>
       <c r="BN10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BO10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BP10">
         <v>1</v>
@@ -2392,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="BS10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:71">
@@ -2400,7 +2340,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.002235210640906917</v>
+        <v>0.002249635039000651</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -2421,10 +2361,10 @@
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="K11">
-        <v>0.002224131108222612</v>
+        <v>0.002236016900743961</v>
       </c>
       <c r="L11">
         <v>2</v>
@@ -2442,13 +2382,13 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="T11">
-        <v>0.002632864454882728</v>
+        <v>0.002650052149538803</v>
       </c>
       <c r="U11">
         <v>2</v>
@@ -2469,10 +2409,10 @@
         <v>0</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="AC11">
-        <v>0.002619707509820116</v>
+        <v>0.03664563742493811</v>
       </c>
       <c r="AD11">
         <v>2</v>
@@ -2490,13 +2430,13 @@
         <v>0</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AL11">
-        <v>0.02608423730255383</v>
+        <v>0.00323527715724841</v>
       </c>
       <c r="AM11">
         <v>2</v>
@@ -2517,10 +2457,10 @@
         <v>0</v>
       </c>
       <c r="AT11" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="AU11">
-        <v>0.02699681659813965</v>
+        <v>0.03933015806958635</v>
       </c>
       <c r="AV11">
         <v>2</v>
@@ -2538,13 +2478,13 @@
         <v>0</v>
       </c>
       <c r="BA11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="BD11">
-        <v>0.02741300406497697</v>
+        <v>0.004171637169583782</v>
       </c>
       <c r="BE11">
         <v>2</v>
@@ -2565,10 +2505,10 @@
         <v>0</v>
       </c>
       <c r="BL11" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="BM11">
-        <v>0.02872226144071698</v>
+        <v>0.04062782540415667</v>
       </c>
       <c r="BN11">
         <v>2</v>
@@ -2586,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="BS11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:71">
@@ -2594,7 +2534,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.002235210640906917</v>
+        <v>0.002249635039000651</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -2615,16 +2555,16 @@
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K12">
-        <v>0.002224131108222612</v>
+        <v>0.001496681992573018</v>
       </c>
       <c r="L12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -2642,7 +2582,7 @@
         <v>17</v>
       </c>
       <c r="T12">
-        <v>0.002632864454882728</v>
+        <v>0.002650052149538803</v>
       </c>
       <c r="U12">
         <v>2</v>
@@ -2663,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AC12">
-        <v>0.002562512359968824</v>
+        <v>0.03192398400382815</v>
       </c>
       <c r="AD12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF12">
         <v>1</v>
@@ -2684,13 +2624,13 @@
         <v>0</v>
       </c>
       <c r="AI12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AL12">
-        <v>0.02608423730255383</v>
+        <v>0.00323527715724841</v>
       </c>
       <c r="AM12">
         <v>2</v>
@@ -2711,16 +2651,16 @@
         <v>0</v>
       </c>
       <c r="AT12" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AU12">
-        <v>0.02622547898104994</v>
+        <v>0.03641050851078802</v>
       </c>
       <c r="AV12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX12">
         <v>1</v>
@@ -2732,13 +2672,13 @@
         <v>0</v>
       </c>
       <c r="BA12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="BD12">
-        <v>0.02741300406497697</v>
+        <v>0.004171637169583782</v>
       </c>
       <c r="BE12">
         <v>2</v>
@@ -2759,16 +2699,16 @@
         <v>0</v>
       </c>
       <c r="BL12" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="BM12">
-        <v>0.02799791289401798</v>
+        <v>0.03857924441156702</v>
       </c>
       <c r="BN12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP12">
         <v>1</v>
@@ -2780,7 +2720,7 @@
         <v>0</v>
       </c>
       <c r="BS12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:71">
@@ -2788,13 +2728,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.002235210640906917</v>
+        <v>0.00149775533975253</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -2809,16 +2749,16 @@
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="K13">
-        <v>0.002212090024043392</v>
+        <v>0.001496681992573018</v>
       </c>
       <c r="L13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -2830,19 +2770,19 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="T13">
-        <v>0.002632864454882728</v>
+        <v>0.00175719500668166</v>
       </c>
       <c r="U13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W13">
         <v>0</v>
@@ -2857,10 +2797,10 @@
         <v>0</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="AC13">
-        <v>0.001736939148238195</v>
+        <v>0.03192398400382815</v>
       </c>
       <c r="AD13">
         <v>1</v>
@@ -2884,13 +2824,13 @@
         <v>18</v>
       </c>
       <c r="AL13">
-        <v>0.02608423730255383</v>
+        <v>0.002136376058347311</v>
       </c>
       <c r="AM13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO13">
         <v>0</v>
@@ -2905,10 +2845,10 @@
         <v>0</v>
       </c>
       <c r="AT13" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="AU13">
-        <v>0.02019391763869837</v>
+        <v>0.03641050851078802</v>
       </c>
       <c r="AV13">
         <v>1</v>
@@ -2932,13 +2872,13 @@
         <v>18</v>
       </c>
       <c r="BD13">
-        <v>0.02741300406497697</v>
+        <v>0.002743065741012353</v>
       </c>
       <c r="BE13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG13">
         <v>0</v>
@@ -2953,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="BL13" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="BM13">
-        <v>0.02425032994690157</v>
+        <v>0.03857924441156702</v>
       </c>
       <c r="BN13">
         <v>1</v>
@@ -2982,13 +2922,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.002235210640906917</v>
+        <v>0.00149775533975253</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -3003,16 +2943,16 @@
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="K14">
-        <v>0.001802693161949929</v>
+        <v>0.001496681992573018</v>
       </c>
       <c r="L14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -3024,19 +2964,19 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="S14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="T14">
-        <v>0.002632864454882728</v>
+        <v>0.00175719500668166</v>
       </c>
       <c r="U14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -3051,10 +2991,10 @@
         <v>0</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="AC14">
-        <v>0.001736939148238195</v>
+        <v>0.03192398400382815</v>
       </c>
       <c r="AD14">
         <v>1</v>
@@ -3078,13 +3018,13 @@
         <v>19</v>
       </c>
       <c r="AL14">
-        <v>0.02608423730255383</v>
+        <v>0.002136376058347311</v>
       </c>
       <c r="AM14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO14">
         <v>0</v>
@@ -3099,10 +3039,10 @@
         <v>0</v>
       </c>
       <c r="AT14" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="AU14">
-        <v>0.02019391763869837</v>
+        <v>0.03641050851078802</v>
       </c>
       <c r="AV14">
         <v>1</v>
@@ -3126,13 +3066,13 @@
         <v>19</v>
       </c>
       <c r="BD14">
-        <v>0.02741300406497697</v>
+        <v>0.002743065741012353</v>
       </c>
       <c r="BE14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG14">
         <v>0</v>
@@ -3147,10 +3087,10 @@
         <v>0</v>
       </c>
       <c r="BL14" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="BM14">
-        <v>0.02425032994690157</v>
+        <v>0.03857924441156702</v>
       </c>
       <c r="BN14">
         <v>1</v>
@@ -3176,13 +3116,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.002235210640906917</v>
+        <v>0.00149775533975253</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -3197,10 +3137,10 @@
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="K15">
-        <v>0.001480747224785204</v>
+        <v>0.001496681992573018</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -3224,13 +3164,13 @@
         <v>20</v>
       </c>
       <c r="T15">
-        <v>0.002632864454882728</v>
+        <v>0.00175719500668166</v>
       </c>
       <c r="U15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W15">
         <v>0</v>
@@ -3245,10 +3185,10 @@
         <v>0</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AC15">
-        <v>0.001736939148238195</v>
+        <v>0.03192398400382815</v>
       </c>
       <c r="AD15">
         <v>1</v>
@@ -3272,13 +3212,13 @@
         <v>20</v>
       </c>
       <c r="AL15">
-        <v>0.02608423730255383</v>
+        <v>0.002136376058347311</v>
       </c>
       <c r="AM15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO15">
         <v>0</v>
@@ -3293,10 +3233,10 @@
         <v>0</v>
       </c>
       <c r="AT15" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AU15">
-        <v>0.02019391763869837</v>
+        <v>0.03641050851078802</v>
       </c>
       <c r="AV15">
         <v>1</v>
@@ -3320,13 +3260,13 @@
         <v>20</v>
       </c>
       <c r="BD15">
-        <v>0.02741300406497697</v>
+        <v>0.002743065741012353</v>
       </c>
       <c r="BE15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG15">
         <v>0</v>
@@ -3341,10 +3281,10 @@
         <v>0</v>
       </c>
       <c r="BL15" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="BM15">
-        <v>0.02425032994690157</v>
+        <v>0.03857924441156702</v>
       </c>
       <c r="BN15">
         <v>1</v>
@@ -3370,13 +3310,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.002235210640906917</v>
+        <v>0.00149775533975253</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -3391,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="K16">
-        <v>0.001480747224785204</v>
+        <v>0.001490677933829307</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -3412,19 +3352,19 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="T16">
-        <v>0.002632864454882728</v>
+        <v>0.00175719500668166</v>
       </c>
       <c r="U16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W16">
         <v>0</v>
@@ -3439,10 +3379,10 @@
         <v>0</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AC16">
-        <v>0.001736939148238195</v>
+        <v>0.03176275176138457</v>
       </c>
       <c r="AD16">
         <v>1</v>
@@ -3460,19 +3400,19 @@
         <v>0</v>
       </c>
       <c r="AI16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="AL16">
-        <v>0.02608423730255383</v>
+        <v>0.002136376058347311</v>
       </c>
       <c r="AM16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO16">
         <v>0</v>
@@ -3487,10 +3427,10 @@
         <v>0</v>
       </c>
       <c r="AT16" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AU16">
-        <v>0.02019391763869837</v>
+        <v>0.03622661705366283</v>
       </c>
       <c r="AV16">
         <v>1</v>
@@ -3508,19 +3448,19 @@
         <v>0</v>
       </c>
       <c r="BA16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="BD16">
-        <v>0.02741300406497697</v>
+        <v>0.002743065741012353</v>
       </c>
       <c r="BE16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG16">
         <v>0</v>
@@ -3535,10 +3475,10 @@
         <v>0</v>
       </c>
       <c r="BL16" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="BM16">
-        <v>0.02425032994690157</v>
+        <v>0.03838439974282173</v>
       </c>
       <c r="BN16">
         <v>1</v>
@@ -3556,7 +3496,7 @@
         <v>0</v>
       </c>
       <c r="BS16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:71">
@@ -3564,13 +3504,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.002235210640906917</v>
+        <v>0.00149775533975253</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -3585,10 +3525,10 @@
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="K17">
-        <v>0.001480747224785204</v>
+        <v>0.001490677933829307</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -3606,19 +3546,19 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="T17">
-        <v>0.002632864454882728</v>
+        <v>0.00175719500668166</v>
       </c>
       <c r="U17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W17">
         <v>0</v>
@@ -3633,10 +3573,10 @@
         <v>0</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="AC17">
-        <v>0.001736939148238195</v>
+        <v>0.03176275176138457</v>
       </c>
       <c r="AD17">
         <v>1</v>
@@ -3654,19 +3594,19 @@
         <v>0</v>
       </c>
       <c r="AI17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AL17">
-        <v>0.02608423730255383</v>
+        <v>0.002136376058347311</v>
       </c>
       <c r="AM17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO17">
         <v>0</v>
@@ -3681,10 +3621,10 @@
         <v>0</v>
       </c>
       <c r="AT17" s="1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="AU17">
-        <v>0.02019391763869837</v>
+        <v>0.03622661705366283</v>
       </c>
       <c r="AV17">
         <v>1</v>
@@ -3702,19 +3642,19 @@
         <v>0</v>
       </c>
       <c r="BA17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="BD17">
-        <v>0.02741300406497697</v>
+        <v>0.002743065741012353</v>
       </c>
       <c r="BE17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG17">
         <v>0</v>
@@ -3729,10 +3669,10 @@
         <v>0</v>
       </c>
       <c r="BL17" s="1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="BM17">
-        <v>0.02425032994690157</v>
+        <v>0.03838439974282173</v>
       </c>
       <c r="BN17">
         <v>1</v>
@@ -3750,7 +3690,7 @@
         <v>0</v>
       </c>
       <c r="BS17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:71">
@@ -3758,13 +3698,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.002235210640906917</v>
+        <v>0.00149775533975253</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -3779,10 +3719,10 @@
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="K18">
-        <v>0.001480747224785204</v>
+        <v>0.001490677933829307</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -3800,19 +3740,19 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="T18">
-        <v>0.002632864454882728</v>
+        <v>0.00175719500668166</v>
       </c>
       <c r="U18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W18">
         <v>0</v>
@@ -3827,10 +3767,10 @@
         <v>0</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="AC18">
-        <v>0.001736939148238195</v>
+        <v>0.03176275176138457</v>
       </c>
       <c r="AD18">
         <v>1</v>
@@ -3848,19 +3788,19 @@
         <v>0</v>
       </c>
       <c r="AI18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="AL18">
-        <v>0.02608423730255383</v>
+        <v>0.002136376058347311</v>
       </c>
       <c r="AM18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO18">
         <v>0</v>
@@ -3875,10 +3815,10 @@
         <v>0</v>
       </c>
       <c r="AT18" s="1" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="AU18">
-        <v>0.02019391763869837</v>
+        <v>0.03622661705366283</v>
       </c>
       <c r="AV18">
         <v>1</v>
@@ -3896,19 +3836,19 @@
         <v>0</v>
       </c>
       <c r="BA18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="BD18">
-        <v>0.02741300406497697</v>
+        <v>0.002743065741012353</v>
       </c>
       <c r="BE18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG18">
         <v>0</v>
@@ -3923,10 +3863,10 @@
         <v>0</v>
       </c>
       <c r="BL18" s="1" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="BM18">
-        <v>0.02425032994690157</v>
+        <v>0.03838439974282173</v>
       </c>
       <c r="BN18">
         <v>1</v>
@@ -3944,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="BS18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:71">
@@ -3952,13 +3892,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.002193066846279648</v>
+        <v>0.00149775533975253</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -3970,13 +3910,13 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="K19">
-        <v>0.001480747224785204</v>
+        <v>0.001490677933829307</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -3994,19 +3934,19 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="T19">
-        <v>0.002432681430403204</v>
+        <v>0.00175719500668166</v>
       </c>
       <c r="U19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W19">
         <v>0</v>
@@ -4018,13 +3958,13 @@
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="AC19">
-        <v>0.001736939148238195</v>
+        <v>0.03176275176138457</v>
       </c>
       <c r="AD19">
         <v>1</v>
@@ -4042,19 +3982,19 @@
         <v>0</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="AL19">
-        <v>0.02297510346704381</v>
+        <v>0.002136376058347311</v>
       </c>
       <c r="AM19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO19">
         <v>0</v>
@@ -4066,13 +4006,13 @@
         <v>0</v>
       </c>
       <c r="AR19">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="AU19">
-        <v>0.02019391763869837</v>
+        <v>0.03622661705366283</v>
       </c>
       <c r="AV19">
         <v>1</v>
@@ -4090,19 +4030,19 @@
         <v>0</v>
       </c>
       <c r="BA19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="BD19">
-        <v>0.02382013123475269</v>
+        <v>0.002743065741012353</v>
       </c>
       <c r="BE19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG19">
         <v>0</v>
@@ -4114,13 +4054,13 @@
         <v>0</v>
       </c>
       <c r="BJ19">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BL19" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="BM19">
-        <v>0.02425032994690157</v>
+        <v>0.03838439974282173</v>
       </c>
       <c r="BN19">
         <v>1</v>
@@ -4138,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="BS19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:71">
@@ -4146,7 +4086,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.001488133579908074</v>
+        <v>0.001491751281008819</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -4164,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="K20">
-        <v>0.001480747224785204</v>
+        <v>0.001478669816341886</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -4188,13 +4128,13 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="T20">
-        <v>0.001745710444946604</v>
+        <v>0.001728675727649034</v>
       </c>
       <c r="U20">
         <v>1</v>
@@ -4212,13 +4152,13 @@
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AC20">
-        <v>0.001736939148238195</v>
+        <v>0.03144028727649742</v>
       </c>
       <c r="AD20">
         <v>1</v>
@@ -4236,13 +4176,13 @@
         <v>0</v>
       </c>
       <c r="AI20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="AL20">
-        <v>0.01821064103655868</v>
+        <v>0.002074949918892424</v>
       </c>
       <c r="AM20">
         <v>1</v>
@@ -4260,13 +4200,13 @@
         <v>0</v>
       </c>
       <c r="AR20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT20" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AU20">
-        <v>0.02019391763869837</v>
+        <v>0.03585883413941245</v>
       </c>
       <c r="AV20">
         <v>1</v>
@@ -4284,13 +4224,13 @@
         <v>0</v>
       </c>
       <c r="BA20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BC20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="BD20">
-        <v>0.0210439694341708</v>
+        <v>0.002628988624881849</v>
       </c>
       <c r="BE20">
         <v>1</v>
@@ -4308,13 +4248,13 @@
         <v>0</v>
       </c>
       <c r="BJ20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL20" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="BM20">
-        <v>0.02425032994690157</v>
+        <v>0.03799471040533116</v>
       </c>
       <c r="BN20">
         <v>1</v>
@@ -4332,7 +4272,7 @@
         <v>0</v>
       </c>
       <c r="BS20">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:71">
@@ -4340,7 +4280,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.001488133579908074</v>
+        <v>0.001491751281008819</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -4358,13 +4298,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="K21">
-        <v>0.001480747224785204</v>
+        <v>0.001472665757598175</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -4382,13 +4322,13 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="T21">
-        <v>0.001745710444946604</v>
+        <v>0.001728675727649034</v>
       </c>
       <c r="U21">
         <v>1</v>
@@ -4406,13 +4346,13 @@
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="AC21">
-        <v>0.001736939148238195</v>
+        <v>0.03127905503405384</v>
       </c>
       <c r="AD21">
         <v>1</v>
@@ -4430,13 +4370,13 @@
         <v>0</v>
       </c>
       <c r="AI21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AK21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="AL21">
-        <v>0.01821064103655868</v>
+        <v>0.002074949918892424</v>
       </c>
       <c r="AM21">
         <v>1</v>
@@ -4454,13 +4394,13 @@
         <v>0</v>
       </c>
       <c r="AR21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT21" s="1" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="AU21">
-        <v>0.02019391763869837</v>
+        <v>0.03567494268228726</v>
       </c>
       <c r="AV21">
         <v>1</v>
@@ -4478,13 +4418,13 @@
         <v>0</v>
       </c>
       <c r="BA21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BC21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="BD21">
-        <v>0.0210439694341708</v>
+        <v>0.002628988624881849</v>
       </c>
       <c r="BE21">
         <v>1</v>
@@ -4502,13 +4442,13 @@
         <v>0</v>
       </c>
       <c r="BJ21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL21" s="1" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="BM21">
-        <v>0.02425032994690157</v>
+        <v>0.03779986573658586</v>
       </c>
       <c r="BN21">
         <v>1</v>
@@ -4526,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="BS21">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:71">
@@ -4534,7 +4474,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.001488133579908074</v>
+        <v>0.001491751281008819</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -4552,13 +4492,13 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K22">
-        <v>0.001480747224785204</v>
+        <v>0.001460657640110754</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -4576,13 +4516,13 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T22">
-        <v>0.001745710444946604</v>
+        <v>0.001728675727649034</v>
       </c>
       <c r="U22">
         <v>1</v>
@@ -4600,13 +4540,13 @@
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB22" s="1" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="AC22">
-        <v>0.001736939148238195</v>
+        <v>0.03095659054916669</v>
       </c>
       <c r="AD22">
         <v>1</v>
@@ -4624,13 +4564,13 @@
         <v>0</v>
       </c>
       <c r="AI22">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AK22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="AL22">
-        <v>0.01821064103655868</v>
+        <v>0.002074949918892424</v>
       </c>
       <c r="AM22">
         <v>1</v>
@@ -4648,13 +4588,13 @@
         <v>0</v>
       </c>
       <c r="AR22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT22" s="1" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="AU22">
-        <v>0.02019391763869837</v>
+        <v>0.03530715976803687</v>
       </c>
       <c r="AV22">
         <v>1</v>
@@ -4672,13 +4612,13 @@
         <v>0</v>
       </c>
       <c r="BA22">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BC22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="BD22">
-        <v>0.0210439694341708</v>
+        <v>0.002628988624881849</v>
       </c>
       <c r="BE22">
         <v>1</v>
@@ -4696,13 +4636,13 @@
         <v>0</v>
       </c>
       <c r="BJ22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL22" s="1" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="BM22">
-        <v>0.02425032994690157</v>
+        <v>0.03741017639909529</v>
       </c>
       <c r="BN22">
         <v>1</v>
@@ -4720,7 +4660,7 @@
         <v>0</v>
       </c>
       <c r="BS22">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:71">
@@ -4728,7 +4668,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.001488133579908074</v>
+        <v>0.001491751281008819</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -4746,13 +4686,13 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="K23">
-        <v>0.001480747224785204</v>
+        <v>0.001442645463879621</v>
       </c>
       <c r="L23">
         <v>1</v>
@@ -4770,13 +4710,13 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="S23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="T23">
-        <v>0.001745710444946604</v>
+        <v>0.001728675727649034</v>
       </c>
       <c r="U23">
         <v>1</v>
@@ -4794,13 +4734,13 @@
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="AC23">
-        <v>0.001708341573312549</v>
+        <v>0.03047289382183596</v>
       </c>
       <c r="AD23">
         <v>1</v>
@@ -4818,13 +4758,13 @@
         <v>0</v>
       </c>
       <c r="AI23">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AK23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AL23">
-        <v>0.01821064103655868</v>
+        <v>0.002074949918892424</v>
       </c>
       <c r="AM23">
         <v>1</v>
@@ -4842,13 +4782,13 @@
         <v>0</v>
       </c>
       <c r="AR23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT23" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="AU23">
-        <v>0.01980824883015352</v>
+        <v>0.0347554853966613</v>
       </c>
       <c r="AV23">
         <v>1</v>
@@ -4866,13 +4806,13 @@
         <v>0</v>
       </c>
       <c r="BA23">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="BC23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="BD23">
-        <v>0.0210439694341708</v>
+        <v>0.002628988624881849</v>
       </c>
       <c r="BE23">
         <v>1</v>
@@ -4890,13 +4830,13 @@
         <v>0</v>
       </c>
       <c r="BJ23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL23" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="BM23">
-        <v>0.02388815567355207</v>
+        <v>0.03682564239285943</v>
       </c>
       <c r="BN23">
         <v>1</v>
@@ -4914,7 +4854,7 @@
         <v>0</v>
       </c>
       <c r="BS23">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:71">
@@ -4922,7 +4862,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.001488133579908074</v>
+        <v>0.001485747222265108</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -4940,13 +4880,13 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="K24">
-        <v>0.001480747224785204</v>
+        <v>0.001406621111417357</v>
       </c>
       <c r="L24">
         <v>1</v>
@@ -4964,13 +4904,13 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="S24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="T24">
-        <v>0.001745710444946604</v>
+        <v>0.001700156448616407</v>
       </c>
       <c r="U24">
         <v>1</v>
@@ -4988,13 +4928,13 @@
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="AC24">
-        <v>0.001708341573312549</v>
+        <v>0.0295055003671745</v>
       </c>
       <c r="AD24">
         <v>1</v>
@@ -5012,13 +4952,13 @@
         <v>0</v>
       </c>
       <c r="AI24">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AK24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="AL24">
-        <v>0.01821064103655868</v>
+        <v>0.002013523779437537</v>
       </c>
       <c r="AM24">
         <v>1</v>
@@ -5036,13 +4976,13 @@
         <v>0</v>
       </c>
       <c r="AR24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT24" s="1" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="AU24">
-        <v>0.01980824883015352</v>
+        <v>0.03365213665391015</v>
       </c>
       <c r="AV24">
         <v>1</v>
@@ -5060,13 +5000,13 @@
         <v>0</v>
       </c>
       <c r="BA24">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="BC24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="BD24">
-        <v>0.0210439694341708</v>
+        <v>0.002514911508751344</v>
       </c>
       <c r="BE24">
         <v>1</v>
@@ -5084,13 +5024,13 @@
         <v>0</v>
       </c>
       <c r="BJ24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL24" s="1" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="BM24">
-        <v>0.02388815567355207</v>
+        <v>0.0356565743803877</v>
       </c>
       <c r="BN24">
         <v>1</v>
@@ -5108,39 +5048,15 @@
         <v>0</v>
       </c>
       <c r="BS24">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:71">
-      <c r="A25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25">
-        <v>0.001488133579908074</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
       <c r="J25" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="K25">
-        <v>0.001474726682695595</v>
+        <v>0.001070393821769555</v>
       </c>
       <c r="L25">
         <v>1</v>
@@ -5158,37 +5074,13 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>1</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T25">
-        <v>0.001745710444946604</v>
-      </c>
-      <c r="U25">
-        <v>1</v>
-      </c>
-      <c r="V25">
-        <v>1</v>
-      </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="X25">
-        <v>1</v>
-      </c>
-      <c r="Y25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z25">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="AC25">
-        <v>0.001708341573312549</v>
+        <v>0.02047649479033422</v>
       </c>
       <c r="AD25">
         <v>1</v>
@@ -5206,37 +5098,13 @@
         <v>0</v>
       </c>
       <c r="AI25">
-        <v>1</v>
-      </c>
-      <c r="AK25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AL25">
-        <v>0.01821064103655868</v>
-      </c>
-      <c r="AM25">
-        <v>1</v>
-      </c>
-      <c r="AN25">
-        <v>1</v>
-      </c>
-      <c r="AO25">
-        <v>0</v>
-      </c>
-      <c r="AP25">
-        <v>1</v>
-      </c>
-      <c r="AQ25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR25">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="AT25" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="AU25">
-        <v>0.01980824883015352</v>
+        <v>0.02335421505489939</v>
       </c>
       <c r="AV25">
         <v>1</v>
@@ -5254,37 +5122,13 @@
         <v>0</v>
       </c>
       <c r="BA25">
-        <v>1</v>
-      </c>
-      <c r="BC25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="BD25">
-        <v>0.0210439694341708</v>
-      </c>
-      <c r="BE25">
-        <v>1</v>
-      </c>
-      <c r="BF25">
-        <v>1</v>
-      </c>
-      <c r="BG25">
-        <v>0</v>
-      </c>
-      <c r="BH25">
-        <v>1</v>
-      </c>
-      <c r="BI25" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ25">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="BL25" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="BM25">
-        <v>0.02388815567355207</v>
+        <v>0.02474527293065157</v>
       </c>
       <c r="BN25">
         <v>1</v>
@@ -5302,39 +5146,15 @@
         <v>0</v>
       </c>
       <c r="BS25">
-        <v>1</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:71">
-      <c r="A26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26">
-        <v>0.001488133579908074</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
       <c r="J26" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="K26">
-        <v>0.001474726682695595</v>
+        <v>0.0003078783613182887</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -5352,37 +5172,13 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>1</v>
-      </c>
-      <c r="S26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="T26">
-        <v>0.001745710444946604</v>
-      </c>
-      <c r="U26">
-        <v>1</v>
-      </c>
-      <c r="V26">
-        <v>1</v>
-      </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="X26">
-        <v>1</v>
-      </c>
-      <c r="Y26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z26">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="AC26">
-        <v>0.001679743998386903</v>
+        <v>0</v>
       </c>
       <c r="AD26">
         <v>1</v>
@@ -5400,37 +5196,13 @@
         <v>0</v>
       </c>
       <c r="AI26">
-        <v>2</v>
-      </c>
-      <c r="AK26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AL26">
-        <v>0.01821064103655868</v>
-      </c>
-      <c r="AM26">
-        <v>1</v>
-      </c>
-      <c r="AN26">
-        <v>1</v>
-      </c>
-      <c r="AO26">
-        <v>0</v>
-      </c>
-      <c r="AP26">
-        <v>1</v>
-      </c>
-      <c r="AQ26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR26">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="AT26" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="AU26">
-        <v>0.01942258002160866</v>
+        <v>0</v>
       </c>
       <c r="AV26">
         <v>1</v>
@@ -5448,37 +5220,13 @@
         <v>0</v>
       </c>
       <c r="BA26">
-        <v>2</v>
-      </c>
-      <c r="BC26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="BD26">
-        <v>0.0210439694341708</v>
-      </c>
-      <c r="BE26">
-        <v>1</v>
-      </c>
-      <c r="BF26">
-        <v>1</v>
-      </c>
-      <c r="BG26">
-        <v>0</v>
-      </c>
-      <c r="BH26">
-        <v>1</v>
-      </c>
-      <c r="BI26" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ26">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="BL26" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="BM26">
-        <v>0.02352598140020257</v>
+        <v>0</v>
       </c>
       <c r="BN26">
         <v>1</v>
@@ -5496,1755 +5244,7 @@
         <v>0</v>
       </c>
       <c r="BS26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:71">
-      <c r="A27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27">
-        <v>0.001488133579908074</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K27">
-        <v>0.001474726682695595</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>1</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>1</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T27">
-        <v>0.001745710444946604</v>
-      </c>
-      <c r="U27">
-        <v>1</v>
-      </c>
-      <c r="V27">
-        <v>1</v>
-      </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
-      <c r="X27">
-        <v>1</v>
-      </c>
-      <c r="Y27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z27">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC27">
-        <v>0.001679743998386903</v>
-      </c>
-      <c r="AD27">
-        <v>1</v>
-      </c>
-      <c r="AE27">
-        <v>1</v>
-      </c>
-      <c r="AF27">
-        <v>1</v>
-      </c>
-      <c r="AG27">
-        <v>0</v>
-      </c>
-      <c r="AH27" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI27">
-        <v>2</v>
-      </c>
-      <c r="AK27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL27">
-        <v>0.01821064103655868</v>
-      </c>
-      <c r="AM27">
-        <v>1</v>
-      </c>
-      <c r="AN27">
-        <v>1</v>
-      </c>
-      <c r="AO27">
-        <v>0</v>
-      </c>
-      <c r="AP27">
-        <v>1</v>
-      </c>
-      <c r="AQ27" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR27">
-        <v>0</v>
-      </c>
-      <c r="AT27" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AU27">
-        <v>0.01942258002160866</v>
-      </c>
-      <c r="AV27">
-        <v>1</v>
-      </c>
-      <c r="AW27">
-        <v>1</v>
-      </c>
-      <c r="AX27">
-        <v>1</v>
-      </c>
-      <c r="AY27">
-        <v>0</v>
-      </c>
-      <c r="AZ27" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA27">
-        <v>2</v>
-      </c>
-      <c r="BC27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="BD27">
-        <v>0.0210439694341708</v>
-      </c>
-      <c r="BE27">
-        <v>1</v>
-      </c>
-      <c r="BF27">
-        <v>1</v>
-      </c>
-      <c r="BG27">
-        <v>0</v>
-      </c>
-      <c r="BH27">
-        <v>1</v>
-      </c>
-      <c r="BI27" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ27">
-        <v>0</v>
-      </c>
-      <c r="BL27" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BM27">
-        <v>0.02352598140020257</v>
-      </c>
-      <c r="BN27">
-        <v>1</v>
-      </c>
-      <c r="BO27">
-        <v>1</v>
-      </c>
-      <c r="BP27">
-        <v>1</v>
-      </c>
-      <c r="BQ27">
-        <v>0</v>
-      </c>
-      <c r="BR27" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:71">
-      <c r="A28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28">
-        <v>0.001488133579908074</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K28">
-        <v>0.001468706140605985</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>1</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>2</v>
-      </c>
-      <c r="S28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="T28">
-        <v>0.001745710444946604</v>
-      </c>
-      <c r="U28">
-        <v>1</v>
-      </c>
-      <c r="V28">
-        <v>1</v>
-      </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-      <c r="X28">
-        <v>1</v>
-      </c>
-      <c r="Y28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z28">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC28">
-        <v>0.001679743998386903</v>
-      </c>
-      <c r="AD28">
-        <v>1</v>
-      </c>
-      <c r="AE28">
-        <v>1</v>
-      </c>
-      <c r="AF28">
-        <v>1</v>
-      </c>
-      <c r="AG28">
-        <v>0</v>
-      </c>
-      <c r="AH28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI28">
-        <v>2</v>
-      </c>
-      <c r="AK28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL28">
-        <v>0.01821064103655868</v>
-      </c>
-      <c r="AM28">
-        <v>1</v>
-      </c>
-      <c r="AN28">
-        <v>1</v>
-      </c>
-      <c r="AO28">
-        <v>0</v>
-      </c>
-      <c r="AP28">
-        <v>1</v>
-      </c>
-      <c r="AQ28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR28">
-        <v>0</v>
-      </c>
-      <c r="AT28" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AU28">
-        <v>0.01942258002160866</v>
-      </c>
-      <c r="AV28">
-        <v>1</v>
-      </c>
-      <c r="AW28">
-        <v>1</v>
-      </c>
-      <c r="AX28">
-        <v>1</v>
-      </c>
-      <c r="AY28">
-        <v>0</v>
-      </c>
-      <c r="AZ28" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA28">
-        <v>2</v>
-      </c>
-      <c r="BC28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="BD28">
-        <v>0.0210439694341708</v>
-      </c>
-      <c r="BE28">
-        <v>1</v>
-      </c>
-      <c r="BF28">
-        <v>1</v>
-      </c>
-      <c r="BG28">
-        <v>0</v>
-      </c>
-      <c r="BH28">
-        <v>1</v>
-      </c>
-      <c r="BI28" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ28">
-        <v>0</v>
-      </c>
-      <c r="BL28" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BM28">
-        <v>0.02352598140020257</v>
-      </c>
-      <c r="BN28">
-        <v>1</v>
-      </c>
-      <c r="BO28">
-        <v>1</v>
-      </c>
-      <c r="BP28">
-        <v>1</v>
-      </c>
-      <c r="BQ28">
-        <v>0</v>
-      </c>
-      <c r="BR28" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:71">
-      <c r="A29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29">
-        <v>0.001482113037818465</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K29">
-        <v>0.001468706140605985</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>1</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>2</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T29">
-        <v>0.001717112870020957</v>
-      </c>
-      <c r="U29">
-        <v>1</v>
-      </c>
-      <c r="V29">
-        <v>1</v>
-      </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-      <c r="X29">
-        <v>1</v>
-      </c>
-      <c r="Y29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z29">
-        <v>1</v>
-      </c>
-      <c r="AB29" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC29">
-        <v>0.001651146423461256</v>
-      </c>
-      <c r="AD29">
-        <v>1</v>
-      </c>
-      <c r="AE29">
-        <v>1</v>
-      </c>
-      <c r="AF29">
-        <v>1</v>
-      </c>
-      <c r="AG29">
-        <v>0</v>
-      </c>
-      <c r="AH29" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI29">
-        <v>3</v>
-      </c>
-      <c r="AK29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AL29">
-        <v>0.01776647906005724</v>
-      </c>
-      <c r="AM29">
-        <v>1</v>
-      </c>
-      <c r="AN29">
-        <v>1</v>
-      </c>
-      <c r="AO29">
-        <v>0</v>
-      </c>
-      <c r="AP29">
-        <v>1</v>
-      </c>
-      <c r="AQ29" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR29">
-        <v>1</v>
-      </c>
-      <c r="AT29" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU29">
-        <v>0.01903691121306381</v>
-      </c>
-      <c r="AV29">
-        <v>1</v>
-      </c>
-      <c r="AW29">
-        <v>1</v>
-      </c>
-      <c r="AX29">
-        <v>1</v>
-      </c>
-      <c r="AY29">
-        <v>0</v>
-      </c>
-      <c r="AZ29" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA29">
-        <v>3</v>
-      </c>
-      <c r="BC29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="BD29">
-        <v>0.02053070188699589</v>
-      </c>
-      <c r="BE29">
-        <v>1</v>
-      </c>
-      <c r="BF29">
-        <v>1</v>
-      </c>
-      <c r="BG29">
-        <v>0</v>
-      </c>
-      <c r="BH29">
-        <v>1</v>
-      </c>
-      <c r="BI29" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ29">
-        <v>1</v>
-      </c>
-      <c r="BL29" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BM29">
-        <v>0.02316380712685307</v>
-      </c>
-      <c r="BN29">
-        <v>1</v>
-      </c>
-      <c r="BO29">
-        <v>1</v>
-      </c>
-      <c r="BP29">
-        <v>1</v>
-      </c>
-      <c r="BQ29">
-        <v>0</v>
-      </c>
-      <c r="BR29" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:71">
-      <c r="A30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30">
-        <v>0.001482113037818465</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K30">
-        <v>0.001468706140605985</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>1</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>2</v>
-      </c>
-      <c r="S30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="T30">
-        <v>0.001717112870020957</v>
-      </c>
-      <c r="U30">
-        <v>1</v>
-      </c>
-      <c r="V30">
-        <v>1</v>
-      </c>
-      <c r="W30">
-        <v>0</v>
-      </c>
-      <c r="X30">
-        <v>1</v>
-      </c>
-      <c r="Y30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z30">
-        <v>1</v>
-      </c>
-      <c r="AB30" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC30">
-        <v>0.001651146423461256</v>
-      </c>
-      <c r="AD30">
-        <v>1</v>
-      </c>
-      <c r="AE30">
-        <v>1</v>
-      </c>
-      <c r="AF30">
-        <v>1</v>
-      </c>
-      <c r="AG30">
-        <v>0</v>
-      </c>
-      <c r="AH30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI30">
-        <v>3</v>
-      </c>
-      <c r="AK30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL30">
-        <v>0.01776647906005724</v>
-      </c>
-      <c r="AM30">
-        <v>1</v>
-      </c>
-      <c r="AN30">
-        <v>1</v>
-      </c>
-      <c r="AO30">
-        <v>0</v>
-      </c>
-      <c r="AP30">
-        <v>1</v>
-      </c>
-      <c r="AQ30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR30">
-        <v>1</v>
-      </c>
-      <c r="AT30" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AU30">
-        <v>0.01903691121306381</v>
-      </c>
-      <c r="AV30">
-        <v>1</v>
-      </c>
-      <c r="AW30">
-        <v>1</v>
-      </c>
-      <c r="AX30">
-        <v>1</v>
-      </c>
-      <c r="AY30">
-        <v>0</v>
-      </c>
-      <c r="AZ30" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA30">
-        <v>3</v>
-      </c>
-      <c r="BC30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="BD30">
-        <v>0.02053070188699589</v>
-      </c>
-      <c r="BE30">
-        <v>1</v>
-      </c>
-      <c r="BF30">
-        <v>1</v>
-      </c>
-      <c r="BG30">
-        <v>0</v>
-      </c>
-      <c r="BH30">
-        <v>1</v>
-      </c>
-      <c r="BI30" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ30">
-        <v>1</v>
-      </c>
-      <c r="BL30" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BM30">
-        <v>0.02316380712685307</v>
-      </c>
-      <c r="BN30">
-        <v>1</v>
-      </c>
-      <c r="BO30">
-        <v>1</v>
-      </c>
-      <c r="BP30">
-        <v>1</v>
-      </c>
-      <c r="BQ30">
-        <v>0</v>
-      </c>
-      <c r="BR30" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:71">
-      <c r="A31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31">
-        <v>0.001482113037818465</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K31">
-        <v>0.001462685598516375</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>1</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>3</v>
-      </c>
-      <c r="S31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="T31">
-        <v>0.001717112870020957</v>
-      </c>
-      <c r="U31">
-        <v>1</v>
-      </c>
-      <c r="V31">
-        <v>1</v>
-      </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-      <c r="X31">
-        <v>1</v>
-      </c>
-      <c r="Y31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z31">
-        <v>1</v>
-      </c>
-      <c r="AB31" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC31">
-        <v>0.00162254884853561</v>
-      </c>
-      <c r="AD31">
-        <v>1</v>
-      </c>
-      <c r="AE31">
-        <v>1</v>
-      </c>
-      <c r="AF31">
-        <v>1</v>
-      </c>
-      <c r="AG31">
-        <v>0</v>
-      </c>
-      <c r="AH31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI31">
-        <v>4</v>
-      </c>
-      <c r="AK31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL31">
-        <v>0.01776647906005724</v>
-      </c>
-      <c r="AM31">
-        <v>1</v>
-      </c>
-      <c r="AN31">
-        <v>1</v>
-      </c>
-      <c r="AO31">
-        <v>0</v>
-      </c>
-      <c r="AP31">
-        <v>1</v>
-      </c>
-      <c r="AQ31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR31">
-        <v>1</v>
-      </c>
-      <c r="AT31" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AU31">
-        <v>0.01865124240451896</v>
-      </c>
-      <c r="AV31">
-        <v>1</v>
-      </c>
-      <c r="AW31">
-        <v>1</v>
-      </c>
-      <c r="AX31">
-        <v>1</v>
-      </c>
-      <c r="AY31">
-        <v>0</v>
-      </c>
-      <c r="AZ31" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA31">
-        <v>4</v>
-      </c>
-      <c r="BC31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="BD31">
-        <v>0.02053070188699589</v>
-      </c>
-      <c r="BE31">
-        <v>1</v>
-      </c>
-      <c r="BF31">
-        <v>1</v>
-      </c>
-      <c r="BG31">
-        <v>0</v>
-      </c>
-      <c r="BH31">
-        <v>1</v>
-      </c>
-      <c r="BI31" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ31">
-        <v>1</v>
-      </c>
-      <c r="BL31" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BM31">
-        <v>0.02280163285350358</v>
-      </c>
-      <c r="BN31">
-        <v>1</v>
-      </c>
-      <c r="BO31">
-        <v>1</v>
-      </c>
-      <c r="BP31">
-        <v>1</v>
-      </c>
-      <c r="BQ31">
-        <v>0</v>
-      </c>
-      <c r="BR31" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:71">
-      <c r="A32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32">
-        <v>0.001482113037818465</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K32">
-        <v>0.001462685598516375</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>1</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>3</v>
-      </c>
-      <c r="S32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T32">
-        <v>0.001717112870020957</v>
-      </c>
-      <c r="U32">
-        <v>1</v>
-      </c>
-      <c r="V32">
-        <v>1</v>
-      </c>
-      <c r="W32">
-        <v>0</v>
-      </c>
-      <c r="X32">
-        <v>1</v>
-      </c>
-      <c r="Y32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z32">
-        <v>1</v>
-      </c>
-      <c r="AB32" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC32">
-        <v>0.001411096440716743</v>
-      </c>
-      <c r="AD32">
-        <v>4</v>
-      </c>
-      <c r="AE32">
-        <v>4</v>
-      </c>
-      <c r="AF32">
-        <v>1</v>
-      </c>
-      <c r="AG32">
-        <v>0</v>
-      </c>
-      <c r="AH32" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI32">
-        <v>104</v>
-      </c>
-      <c r="AK32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AL32">
-        <v>0.01776647906005724</v>
-      </c>
-      <c r="AM32">
-        <v>1</v>
-      </c>
-      <c r="AN32">
-        <v>1</v>
-      </c>
-      <c r="AO32">
-        <v>0</v>
-      </c>
-      <c r="AP32">
-        <v>1</v>
-      </c>
-      <c r="AQ32" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR32">
-        <v>1</v>
-      </c>
-      <c r="AT32" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AU32">
-        <v>0.01518022312761529</v>
-      </c>
-      <c r="AV32">
-        <v>1</v>
-      </c>
-      <c r="AW32">
-        <v>1</v>
-      </c>
-      <c r="AX32">
-        <v>1</v>
-      </c>
-      <c r="AY32">
-        <v>0</v>
-      </c>
-      <c r="AZ32" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA32">
-        <v>13</v>
-      </c>
-      <c r="BC32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="BD32">
-        <v>0.02053070188699589</v>
-      </c>
-      <c r="BE32">
-        <v>1</v>
-      </c>
-      <c r="BF32">
-        <v>1</v>
-      </c>
-      <c r="BG32">
-        <v>0</v>
-      </c>
-      <c r="BH32">
-        <v>1</v>
-      </c>
-      <c r="BI32" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ32">
-        <v>1</v>
-      </c>
-      <c r="BL32" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BM32">
-        <v>0.01954206439335809</v>
-      </c>
-      <c r="BN32">
-        <v>1</v>
-      </c>
-      <c r="BO32">
-        <v>1</v>
-      </c>
-      <c r="BP32">
-        <v>1</v>
-      </c>
-      <c r="BQ32">
-        <v>0</v>
-      </c>
-      <c r="BR32" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS32">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:71">
-      <c r="A33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33">
-        <v>0.001476092495728855</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>2</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K33">
-        <v>0.001456665056426765</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>1</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>4</v>
-      </c>
-      <c r="S33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T33">
-        <v>0.001688515295095311</v>
-      </c>
-      <c r="U33">
-        <v>1</v>
-      </c>
-      <c r="V33">
-        <v>1</v>
-      </c>
-      <c r="W33">
-        <v>0</v>
-      </c>
-      <c r="X33">
-        <v>1</v>
-      </c>
-      <c r="Y33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z33">
-        <v>2</v>
-      </c>
-      <c r="AB33" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC33">
-        <v>0.001365170674204794</v>
-      </c>
-      <c r="AD33">
-        <v>1</v>
-      </c>
-      <c r="AE33">
-        <v>1</v>
-      </c>
-      <c r="AF33">
-        <v>1</v>
-      </c>
-      <c r="AG33">
-        <v>0</v>
-      </c>
-      <c r="AH33" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI33">
-        <v>13</v>
-      </c>
-      <c r="AK33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL33">
-        <v>0.01732231708355581</v>
-      </c>
-      <c r="AM33">
-        <v>1</v>
-      </c>
-      <c r="AN33">
-        <v>1</v>
-      </c>
-      <c r="AO33">
-        <v>0</v>
-      </c>
-      <c r="AP33">
-        <v>1</v>
-      </c>
-      <c r="AQ33" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR33">
-        <v>2</v>
-      </c>
-      <c r="AT33" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AU33">
-        <v>0.01440888551052559</v>
-      </c>
-      <c r="AV33">
-        <v>1</v>
-      </c>
-      <c r="AW33">
-        <v>1</v>
-      </c>
-      <c r="AX33">
-        <v>1</v>
-      </c>
-      <c r="AY33">
-        <v>0</v>
-      </c>
-      <c r="AZ33" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA33">
-        <v>15</v>
-      </c>
-      <c r="BC33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="BD33">
-        <v>0.020017434339821</v>
-      </c>
-      <c r="BE33">
-        <v>1</v>
-      </c>
-      <c r="BF33">
-        <v>1</v>
-      </c>
-      <c r="BG33">
-        <v>0</v>
-      </c>
-      <c r="BH33">
-        <v>1</v>
-      </c>
-      <c r="BI33" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ33">
-        <v>2</v>
-      </c>
-      <c r="BL33" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BM33">
-        <v>0.0188177158466591</v>
-      </c>
-      <c r="BN33">
-        <v>1</v>
-      </c>
-      <c r="BO33">
-        <v>1</v>
-      </c>
-      <c r="BP33">
-        <v>1</v>
-      </c>
-      <c r="BQ33">
-        <v>0</v>
-      </c>
-      <c r="BR33" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS33">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:71">
-      <c r="A34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34">
-        <v>0.001241291354234074</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>41</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K34">
-        <v>0.001402480177620278</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>1</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>13</v>
-      </c>
-      <c r="S34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="T34">
-        <v>0.0005732098729951053</v>
-      </c>
-      <c r="U34">
-        <v>1</v>
-      </c>
-      <c r="V34">
-        <v>1</v>
-      </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
-      <c r="X34">
-        <v>1</v>
-      </c>
-      <c r="Y34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z34">
-        <v>41</v>
-      </c>
-      <c r="AB34" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC34">
-        <v>0.001307975524353501</v>
-      </c>
-      <c r="AD34">
-        <v>1</v>
-      </c>
-      <c r="AE34">
-        <v>1</v>
-      </c>
-      <c r="AF34">
-        <v>1</v>
-      </c>
-      <c r="AG34">
-        <v>0</v>
-      </c>
-      <c r="AH34" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI34">
-        <v>15</v>
-      </c>
-      <c r="AK34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL34">
-        <v>0</v>
-      </c>
-      <c r="AM34">
-        <v>1</v>
-      </c>
-      <c r="AN34">
-        <v>1</v>
-      </c>
-      <c r="AO34">
-        <v>0</v>
-      </c>
-      <c r="AP34">
-        <v>1</v>
-      </c>
-      <c r="AQ34" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR34">
-        <v>41</v>
-      </c>
-      <c r="AT34" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU34">
-        <v>0.005152834105449134</v>
-      </c>
-      <c r="AV34">
-        <v>1</v>
-      </c>
-      <c r="AW34">
-        <v>1</v>
-      </c>
-      <c r="AX34">
-        <v>1</v>
-      </c>
-      <c r="AY34">
-        <v>0</v>
-      </c>
-      <c r="AZ34" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA34">
-        <v>39</v>
-      </c>
-      <c r="BC34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="BD34">
-        <v>0</v>
-      </c>
-      <c r="BE34">
-        <v>1</v>
-      </c>
-      <c r="BF34">
-        <v>1</v>
-      </c>
-      <c r="BG34">
-        <v>0</v>
-      </c>
-      <c r="BH34">
-        <v>1</v>
-      </c>
-      <c r="BI34" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ34">
-        <v>41</v>
-      </c>
-      <c r="BL34" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BM34">
-        <v>0.01012553328627114</v>
-      </c>
-      <c r="BN34">
-        <v>1</v>
-      </c>
-      <c r="BO34">
-        <v>1</v>
-      </c>
-      <c r="BP34">
-        <v>1</v>
-      </c>
-      <c r="BQ34">
-        <v>0</v>
-      </c>
-      <c r="BR34" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS34">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:71">
-      <c r="J35" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K35">
-        <v>0.001390439093441058</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>1</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>15</v>
-      </c>
-      <c r="AB35" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC35">
-        <v>0.0006216337261379896</v>
-      </c>
-      <c r="AD35">
-        <v>1</v>
-      </c>
-      <c r="AE35">
-        <v>1</v>
-      </c>
-      <c r="AF35">
-        <v>1</v>
-      </c>
-      <c r="AG35">
-        <v>0</v>
-      </c>
-      <c r="AH35" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI35">
-        <v>39</v>
-      </c>
-      <c r="AT35" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AU35">
-        <v>0.0004930584283575808</v>
-      </c>
-      <c r="AV35">
-        <v>4</v>
-      </c>
-      <c r="AW35">
-        <v>4</v>
-      </c>
-      <c r="AX35">
-        <v>1</v>
-      </c>
-      <c r="AY35">
-        <v>0</v>
-      </c>
-      <c r="AZ35" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA35">
-        <v>104</v>
-      </c>
-      <c r="BL35" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BM35">
-        <v>0.00337006230625211</v>
-      </c>
-      <c r="BN35">
-        <v>2</v>
-      </c>
-      <c r="BO35">
-        <v>2</v>
-      </c>
-      <c r="BP35">
-        <v>1</v>
-      </c>
-      <c r="BQ35">
-        <v>0</v>
-      </c>
-      <c r="BR35" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS35">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:71">
-      <c r="J36" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K36">
-        <v>0.001245946083290424</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>1</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>39</v>
-      </c>
-      <c r="AB36" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC36">
-        <v>0.0006178772650248756</v>
-      </c>
-      <c r="AD36">
-        <v>2</v>
-      </c>
-      <c r="AE36">
-        <v>2</v>
-      </c>
-      <c r="AF36">
-        <v>1</v>
-      </c>
-      <c r="AG36">
-        <v>0</v>
-      </c>
-      <c r="AH36" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI36">
-        <v>70</v>
-      </c>
-      <c r="AT36" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AU36">
-        <v>0</v>
-      </c>
-      <c r="AV36">
-        <v>2</v>
-      </c>
-      <c r="AW36">
-        <v>2</v>
-      </c>
-      <c r="AX36">
-        <v>1</v>
-      </c>
-      <c r="AY36">
-        <v>0</v>
-      </c>
-      <c r="AZ36" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA36">
-        <v>70</v>
-      </c>
-      <c r="BL36" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="BM36">
-        <v>0</v>
-      </c>
-      <c r="BN36">
-        <v>4</v>
-      </c>
-      <c r="BO36">
-        <v>4</v>
-      </c>
-      <c r="BP36">
-        <v>1</v>
-      </c>
-      <c r="BQ36">
-        <v>0</v>
-      </c>
-      <c r="BR36" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS36">
-        <v>104</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
